--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/56.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/56.xlsx
@@ -479,13 +479,13 @@
         <v>-3.846213749476067</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.630291639470816</v>
+        <v>-8.79211250259455</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.064282378550762</v>
+        <v>-3.045782954635403</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.439579606216597</v>
+        <v>-5.478149530388322</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.024022261349328</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.875012964188359</v>
+        <v>-9.049598822582777</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.159188481850434</v>
+        <v>-3.13230998411637</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.367323186833111</v>
+        <v>-5.417375060597029</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.283413735926794</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.694329276023577</v>
+        <v>-9.862604644448282</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.04341324782105</v>
+        <v>-3.014453073935152</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.241912017912217</v>
+        <v>-5.284815494324554</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.737277620830954</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.46367226791193</v>
+        <v>-10.62318888573552</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.947184821934364</v>
+        <v>-2.922283261929401</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.448953695051273</v>
+        <v>-5.499201953357818</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-1.352316113259564</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.24275593311452</v>
+        <v>-11.40239038166368</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.794738047645306</v>
+        <v>-2.774811562720199</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.002061029851795</v>
+        <v>-5.052859164877693</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.12789012350412</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.90449328794672</v>
+        <v>-12.05995129188938</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.763486720762105</v>
+        <v>-2.74365188195689</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.141742808870171</v>
+        <v>-5.185667484904162</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.028908478356907</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.40167348836127</v>
+        <v>-12.55980232208364</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.64367905745747</v>
+        <v>-2.621212665781068</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.70150103351429</v>
+        <v>-4.743566602544756</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.026146680730008</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.37900080319328</v>
+        <v>-13.53029545483226</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.389478905482517</v>
+        <v>-2.372563650211007</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.618561295011956</v>
+        <v>-4.648581945428034</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.076274249650611</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.12579884958817</v>
+        <v>-14.27008911920684</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.365114129894065</v>
+        <v>-2.353880934055864</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.250445016011144</v>
+        <v>-4.26035588926233</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.138434563803763</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.82359240644649</v>
+        <v>-14.96928355246922</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.18819784159382</v>
+        <v>-2.176310030613533</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.035626510984102</v>
+        <v>-4.051402735908382</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.173858604801274</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.4872150528879</v>
+        <v>-15.62836316982455</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.172539447395116</v>
+        <v>-2.167786941463569</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.517983041227937</v>
+        <v>-3.533471235489699</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.146120656830531</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.45824497005304</v>
+        <v>-16.59816241052257</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.008231046731454</v>
+        <v>-1.998843865593936</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.877690878450482</v>
+        <v>-2.895758256372064</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.03373115201115</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.1009853934619</v>
+        <v>-17.22771888496981</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.726000274372365</v>
+        <v>-1.724010244340422</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.514693689860785</v>
+        <v>-2.518909411375821</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.8241570727859393</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.00693347320082</v>
+        <v>-18.12878353574876</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.557711813644818</v>
+        <v>-1.557934382793127</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.918601141476997</v>
+        <v>-1.928315630185558</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.5224228614706784</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.92383981041826</v>
+        <v>-19.03966741365901</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.390431460236084</v>
+        <v>-1.399962656704861</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.567570317684638</v>
+        <v>-1.551257308343847</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.146960101184053</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.71414357915621</v>
+        <v>-19.82443313829491</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.144348536023001</v>
+        <v>-1.164458313187892</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.039099513478365</v>
+        <v>-1.016960429373006</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2700482184501177</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.70047839834333</v>
+        <v>-20.80691882044656</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.046640679915199</v>
+        <v>-1.068295348815414</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6782887394632362</v>
+        <v>-0.6592525311313665</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6858427924970588</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.54126608683898</v>
+        <v>-21.64824329335872</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8954638590017883</v>
+        <v>-0.9225911104898447</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3095047530174964</v>
+        <v>-0.2793793641786846</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.055329285690903</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.19060503088006</v>
+        <v>-22.30285843544502</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6387892617897487</v>
+        <v>-0.6768747707563298</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06720007664748782</v>
+        <v>0.07970322586133623</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.337448913751234</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.8208815819836</v>
+        <v>-22.9242060360105</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3375222810987901</v>
+        <v>-0.3794045578894718</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3839421592973666</v>
+        <v>0.4043923363361427</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.500294289263499</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.45124977920703</v>
+        <v>-23.55463969474814</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06662944300063604</v>
+        <v>-0.1181607469856698</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3480168802996703</v>
+        <v>0.3725256712193815</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.524985061724293</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.96170557470309</v>
+        <v>-24.06072266109506</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04853045279518645</v>
+        <v>-0.005174173461573876</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6077943532851989</v>
+        <v>0.6482364767632908</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.405073604807705</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.34616104765037</v>
+        <v>-24.44379034994112</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02991319815425198</v>
+        <v>-0.02249529012117747</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5389550249434032</v>
+        <v>0.5716857820477185</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.147434952634684</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.61845476215259</v>
+        <v>-24.70838579037241</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3172630609244557</v>
+        <v>0.2660459722076233</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5283371673387635</v>
+        <v>0.5609108168089778</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.771090103870174</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.63493797143032</v>
+        <v>-24.71550800311831</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3303815483718652</v>
+        <v>0.2838122271638456</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3684146881270795</v>
+        <v>0.4072726429613224</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.3035929535594644</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.61197407224594</v>
+        <v>-24.68085267749625</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1487651233514412</v>
+        <v>0.1007949257393569</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3443248508983035</v>
+        <v>0.3817950216313235</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.2170740291145052</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.72475116892456</v>
+        <v>-24.78519833114481</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2646581881064004</v>
+        <v>0.2202229122615821</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05676551128263215</v>
+        <v>0.09668394264705493</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.7504195829463469</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.77005053675694</v>
+        <v>-24.82629506976499</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2111368540894242</v>
+        <v>0.1806710653767277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03819296122840702</v>
+        <v>-0.006038265449127797</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.255047112371448</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.5435929745036</v>
+        <v>-24.59469223249486</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08628865419072444</v>
+        <v>0.04723431481385557</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2333991965985427</v>
+        <v>-0.2050805455518892</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.69566570892873</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.07130124179117</v>
+        <v>-24.13072720438977</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08465211633550868</v>
+        <v>0.05028482137597775</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6932401493084874</v>
+        <v>-0.6691241274740279</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.047187090322104</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.15582514893736</v>
+        <v>-24.21151980522606</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1479926774837794</v>
+        <v>0.1170686581716224</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7491442824426577</v>
+        <v>-0.7369291638913272</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.291851930365798</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.73312705938939</v>
+        <v>-23.7888871771923</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06208098623637293</v>
+        <v>0.03513702698810069</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.211577511115264</v>
+        <v>-1.199296931049725</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.424529864447379</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.1712970675424</v>
+        <v>-23.2239150326633</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09437203272225358</v>
+        <v>-0.1137748255336916</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.284331438006736</v>
+        <v>-1.280613223999686</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.447580778451807</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.82916900968241</v>
+        <v>-22.87524082338245</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2857945925711304</v>
+        <v>-0.3085097380015251</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.30643124520357</v>
+        <v>-1.305396953279073</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.371850901942598</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.10342338625701</v>
+        <v>-22.14733496998816</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4173722361304774</v>
+        <v>-0.4337114300769516</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.509244108524748</v>
+        <v>-1.51457267578133</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.212426685821197</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.2912947486819</v>
+        <v>-21.34824626604341</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3535996289884297</v>
+        <v>-0.3667050241329975</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.63706426116852</v>
+        <v>-1.626132188295678</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.986272188533489</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.91606934923803</v>
+        <v>-20.96987871391753</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4085349317123123</v>
+        <v>-0.428670893482887</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.886380984183509</v>
+        <v>-1.873236312130416</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.709984210902162</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.26216119150518</v>
+        <v>-20.31274984968561</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2603824327553401</v>
+        <v>-0.2777821032319941</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.038474266295841</v>
+        <v>-2.03095928446469</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.40155202682088</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.95797462728052</v>
+        <v>-19.99520913656239</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5414348978586736</v>
+        <v>-0.5600390601967664</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.263648782870688</v>
+        <v>-2.250713587663062</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.07783227151573</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.42260417947666</v>
+        <v>-19.47122899223083</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2637209699799803</v>
+        <v>-0.2844722699841161</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.104145257349939</v>
+        <v>-2.109408363092313</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.7554102221245776</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.86559215507542</v>
+        <v>-18.91603679792459</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.004323173776861682</v>
+        <v>-0.03374157826222016</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.075852790908969</v>
+        <v>-2.094496230155587</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.4456577713662679</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.96230181281337</v>
+        <v>-18.02273588273078</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01388055485132171</v>
+        <v>-0.04201591365819103</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.965445401044693</v>
+        <v>-1.994091359662389</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.1557726083156213</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.62764945987601</v>
+        <v>-17.68580546909896</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03306844313910797</v>
+        <v>0.01263135840317358</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.167577464618102</v>
+        <v>-2.203581297432848</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1085217708510192</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.11745551043679</v>
+        <v>-17.17554605814553</v>
       </c>
       <c r="F45" t="n">
-        <v>0.002956146603138012</v>
+        <v>-0.02102895220290414</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.209040787717848</v>
+        <v>-2.246353850816767</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3459507767142852</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.74058048083486</v>
+        <v>-16.79874958236065</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0212330013701876</v>
+        <v>-0.004336266079703408</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.14806993338393</v>
+        <v>-2.197846868788172</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5522132970951454</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.07073899054363</v>
+        <v>-16.130596999136</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02763513745979165</v>
+        <v>0.01146614345025996</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.438771425681615</v>
+        <v>-2.495670573831757</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7270104138460372</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.42061450833204</v>
+        <v>-15.47113770499826</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.003000851189847349</v>
+        <v>-0.01644664620830002</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.372786219359316</v>
+        <v>-2.433901089024493</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.8673648523015653</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.88368607649001</v>
+        <v>-14.94349171587102</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1485032772946067</v>
+        <v>0.1290219306661183</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.55394441378028</v>
+        <v>-2.63154249272319</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.969651710329402</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.18480585849583</v>
+        <v>-14.24336772910687</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2942991617400682</v>
+        <v>0.2718982315778749</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.464484708462765</v>
+        <v>-2.56699743971348</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.0307159255897</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.41980951115094</v>
+        <v>-13.46561947879414</v>
       </c>
       <c r="F51" t="n">
-        <v>0.289769224956831</v>
+        <v>0.2705235397794937</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.5307317608419</v>
+        <v>-2.648366101874808</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.048051031645347</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83276374403078</v>
+        <v>-12.874436543976</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3741229321660721</v>
+        <v>0.3497188796690947</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.541860218257367</v>
+        <v>-2.664142326799088</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.021149834034668</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.18134312383786</v>
+        <v>-12.21537001892351</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4237034830276887</v>
+        <v>0.4017215065564306</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.561014257314812</v>
+        <v>-2.688624933113116</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.9512149837481982</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.80368255606543</v>
+        <v>-11.84847132408698</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3139245236998156</v>
+        <v>0.2875828103822627</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.666328741373656</v>
+        <v>-2.799490553576852</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.8366404290154987</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34936655515469</v>
+        <v>-11.3881197715662</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06506603128428648</v>
+        <v>0.04271747033346008</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.130987661529356</v>
+        <v>-3.274924438971293</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.6761962547397387</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.90291902825184</v>
+        <v>-10.94713173494834</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1568299819019445</v>
+        <v>0.1274639466279529</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.200677989555864</v>
+        <v>-3.348372257913376</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.4665685303204511</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14686472374784</v>
+        <v>-10.18896956968683</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09269079028032848</v>
+        <v>0.06358660106317143</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.56677805391905</v>
+        <v>-3.709824554767749</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2061911523960086</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.845348989302886</v>
+        <v>-9.884887743884899</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.08236639101639077</v>
+        <v>-0.1072286741128286</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.599993226228509</v>
+        <v>-3.74525232625746</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1031505598725008</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.300565175755823</v>
+        <v>-9.341544083650426</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00869057524781403</v>
+        <v>-0.0242234740962853</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.885706551143497</v>
+        <v>-4.026121499121009</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4605917095246724</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.935460126408609</v>
+        <v>-8.974593019602528</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1278359587857054</v>
+        <v>-0.1593884086342652</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.797503706898789</v>
+        <v>-3.935967901752883</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.8578961767869505</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.407657029647265</v>
+        <v>-8.434391512050068</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1530517340588698</v>
+        <v>-0.1790268628968543</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.199738527105138</v>
+        <v>-4.338346737290492</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.291427962743078</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.896206219135235</v>
+        <v>-7.931542344505053</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09569435530926791</v>
+        <v>-0.1248116368292667</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.156403004699025</v>
+        <v>-4.299187659490889</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.749918796663231</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.412956228944284</v>
+        <v>-7.456029905293563</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1530124571503446</v>
+        <v>-0.1772332174075379</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.159348772838413</v>
+        <v>-4.300077936084127</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.222474250010039</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.060406698022285</v>
+        <v>-7.086800780551204</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3110627370556617</v>
+        <v>-0.3338564363031068</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.40833818828236</v>
+        <v>-4.546095398783002</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.695105994200423</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.687001128673415</v>
+        <v>-6.722821669248378</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2564940188113475</v>
+        <v>-0.2807802405827494</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.69338380575242</v>
+        <v>-4.830342385779717</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.151114801204443</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.437841513292526</v>
+        <v>-6.474460684340834</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3741283598442562</v>
+        <v>-0.395979413287097</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.687858853953212</v>
+        <v>-4.820261312591588</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.578360235465329</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.27403062013685</v>
+        <v>-6.307062500206524</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4297313700130668</v>
+        <v>-0.4510456390393969</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.804210149307631</v>
+        <v>-4.930511594821763</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.959536182912235</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.997717568662221</v>
+        <v>-6.027489465324306</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3984145816156581</v>
+        <v>-0.4143086372655135</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.801879719401803</v>
+        <v>-4.922289628637158</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.284695724809457</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.86383567980273</v>
+        <v>-5.891264054256147</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6552462864617984</v>
+        <v>-0.6713629112599632</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.903161774185397</v>
+        <v>-5.01855733143237</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.54201477315735</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.625869983351517</v>
+        <v>-5.661101370298602</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5994730763560453</v>
+        <v>-0.6209575453193178</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.770942607786806</v>
+        <v>-4.881101243897088</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.725281787142674</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.503535505598429</v>
+        <v>-5.536109155068644</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6993018855242066</v>
+        <v>-0.7137950647699973</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.748214370053569</v>
+        <v>-4.852874238970327</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.831013497927096</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.481357144584545</v>
+        <v>-5.518774946106198</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7924405279402458</v>
+        <v>-0.8045770926745259</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.649302022084329</v>
+        <v>-4.74367134096749</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.86005793063203</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.515514962698608</v>
+        <v>-5.560225176903103</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8517224752075815</v>
+        <v>-0.8602324720547034</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.462710521984048</v>
+        <v>-4.556385948816598</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.819149109691358</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.75232853649975</v>
+        <v>-5.796357950956474</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.743540776826399</v>
+        <v>-0.7548525264816502</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.348519456598513</v>
+        <v>-4.451817726019732</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.717534776238454</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.95425112322769</v>
+        <v>-5.990385879070854</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.07471057720786</v>
+        <v>-1.077171930142104</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.183360056250139</v>
+        <v>-4.289355340056754</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.569156710273042</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.482342250651554</v>
+        <v>-6.518293714254933</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9863506253290506</v>
+        <v>-0.9900295624275757</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.016407010412449</v>
+        <v>-4.123659155291868</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.386521375025326</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.948519877936893</v>
+        <v>-6.985086679773834</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.045108880482717</v>
+        <v>-1.044742296003149</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.937905562573459</v>
+        <v>-4.046139630166008</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.184557739388004</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.524018233950646</v>
+        <v>-7.567222833328342</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.137606000059512</v>
+        <v>-1.132801124916598</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.533693804638008</v>
+        <v>-3.651668545544802</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.973402547302668</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.949504984003902</v>
+        <v>-7.99280122950149</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.103042320557355</v>
+        <v>-1.092633939798183</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.325015589643737</v>
+        <v>-3.45186691187722</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.763862510756212</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.421927639744744</v>
+        <v>-8.462775624610931</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.287997282802419</v>
+        <v>-1.280207362611592</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.957148064396917</v>
+        <v>-3.085596647577092</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.561709923361913</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.364010475326827</v>
+        <v>-9.404256214262293</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.211184742030012</v>
+        <v>-1.20099893041915</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.933516457767602</v>
+        <v>-3.072019929530222</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.371795785912579</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19063229214773</v>
+        <v>-10.22369035682309</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.304271015234685</v>
+        <v>-1.291741681415153</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.758930599373185</v>
+        <v>-2.898507639968826</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.196542552836809</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02534515212482</v>
+        <v>-11.05689760197338</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.414259451408025</v>
+        <v>-1.395000673927846</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.383849215260575</v>
+        <v>-2.52398922487841</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.034705516609784</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.24249727041156</v>
+        <v>-12.26445306227714</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.488964131422914</v>
+        <v>-1.473698506309462</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.279621392337593</v>
+        <v>-2.418360525551364</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.887409748254674</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13111114118804</v>
+        <v>-13.14710993526062</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.587824110180788</v>
+        <v>-1.567164456296544</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.934599935549586</v>
+        <v>-2.08116826586271</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.752262298272979</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32408177612612</v>
+        <v>-14.32515534495914</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.799002955017829</v>
+        <v>-1.769767842772255</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.691554425595784</v>
+        <v>-1.826195668020094</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.631296734726594</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42752724423247</v>
+        <v>-15.42049667760647</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.839916401398223</v>
+        <v>-1.809882658679304</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.27571670273688</v>
+        <v>-1.414940251155795</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.525036513724484</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.8441667809186</v>
+        <v>-16.8318992931559</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.864857238311711</v>
+        <v>-1.829926974329986</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9702863697422527</v>
+        <v>-1.102819751409046</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.435234740499207</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.53937124516813</v>
+        <v>-18.5023985819431</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.091196969839472</v>
+        <v>-2.055952490589545</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7615688778394557</v>
+        <v>-0.8996664882139823</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.364044432117397</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.1536652778558</v>
+        <v>-20.11611655330573</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.31388394887439</v>
+        <v>-2.282017283757629</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4728181386651873</v>
+        <v>-0.6040030131392825</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.31105981163428</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.98154713910338</v>
+        <v>-21.93852583196547</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.524958055288698</v>
+        <v>-2.486532146448232</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6378335236823027</v>
+        <v>-0.751566358468377</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.277564930458969</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.70516190051946</v>
+        <v>-23.6547827191845</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.628112309378658</v>
+        <v>-2.588285524134127</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4590319437728498</v>
+        <v>-0.5748464547107586</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.261800370195795</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.78484802232196</v>
+        <v>-25.72955922742135</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.801807891179838</v>
+        <v>-2.772481132814371</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4558112372737851</v>
+        <v>-0.5622909362855433</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.263043855085844</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.05388812012435</v>
+        <v>-27.99348023481263</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.674393599924159</v>
+        <v>-2.641662842819844</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5905441258179881</v>
+        <v>-0.7015668539158252</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.280394481482722</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.33425305988483</v>
+        <v>-30.27257522119746</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.162749588223384</v>
+        <v>-3.134457121782413</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9768456134659574</v>
+        <v>-1.069237994620018</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.315878627000185</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.51799680467337</v>
+        <v>-32.45279713652157</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.222280289244712</v>
+        <v>-3.195441068419174</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.202098683857854</v>
+        <v>-1.292658142614074</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.368676408146547</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.74273254965936</v>
+        <v>-34.67877665027753</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.600425272222286</v>
+        <v>-3.557312318964482</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.437301904409463</v>
+        <v>-1.517806474583237</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.449851013661799</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.24663546813947</v>
+        <v>-37.18177619986156</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.84530370457393</v>
+        <v>-3.803748735354292</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.867947021782359</v>
+        <v>-1.937231488420773</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.554804969135006</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.78106963684648</v>
+        <v>-39.7077789255385</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.739544082218467</v>
+        <v>-3.696090729086778</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.347086028881008</v>
+        <v>-2.411487066559458</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.709824126618614</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.34726573224753</v>
+        <v>-42.28300870990034</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.922037691529287</v>
+        <v>-3.885483981995188</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.710606909584374</v>
+        <v>-2.760658783348293</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.89385339129356</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.59030451660625</v>
+        <v>-44.54279254959362</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.162778956182946</v>
+        <v>-4.117937818950034</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.320001237655355</v>
+        <v>-3.361137253184059</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.167999093988379</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.89352861712838</v>
+        <v>-46.85307340134744</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.306388426053839</v>
+        <v>-4.257580321059884</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.596536858278293</v>
+        <v>-3.629817492101961</v>
       </c>
     </row>
   </sheetData>
